--- a/output/StructureDefinition-Patient.xlsx
+++ b/output/StructureDefinition-Patient.xlsx
@@ -2212,15 +2212,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.76171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.55078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.8203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2231,27 +2231,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.3671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="153.5546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.93359375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="147.8359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="38.20703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="42.12109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="35.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-Patient.xlsx
+++ b/output/StructureDefinition-Patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/StructureDefinition/Patient</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -506,7 +506,7 @@
     <t>birthCountry</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ehrrunner.com/fhir/StructureDefinition/BirthCountry-1.0}
+    <t xml:space="preserve">Extension {http://br-ipes.com/fhir/StructureDefinition/BirthCountry-1.0}
 </t>
   </si>
   <si>
@@ -732,7 +732,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://ehrrunner.com/fhir/StructureDefinition/IdentificadorIndividuo}
+    <t xml:space="preserve">Identifier {http://br-ipes.com/fhir/StructureDefinition/IdentificadorIndividuo}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-Patient.xlsx
+++ b/output/StructureDefinition-Patient.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -454,66 +451,47 @@
 </t>
   </si>
   <si>
-    <t>Parentes do Indivíduo</t>
-  </si>
-  <si>
-    <t>Parentes de um indivíduo e seu grau de parentesco.</t>
+    <t>Patient.extension:raceEthnicity</t>
+  </si>
+  <si>
+    <t>raceEthnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRRacaCorEtnia-1.0}
+</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthCity</t>
+  </si>
+  <si>
+    <t>birthCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRMunicipio-1.0}
+</t>
+  </si>
+  <si>
+    <t>Informa o município de nascimento (apenas para nascidos no Brasil).</t>
+  </si>
+  <si>
+    <t>Patient.extension:birthCountry</t>
+  </si>
+  <si>
+    <t>birthCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://br-ipes.com/fhir/StructureDefinition/BirthCountry-1.0}
+</t>
+  </si>
+  <si>
+    <t>País de nascimento</t>
+  </si>
+  <si>
+    <t>País de nascimento.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Patient.extension:raceEthnicity</t>
-  </si>
-  <si>
-    <t>raceEthnicity</t>
-  </si>
-  <si>
-    <t>raça
-etniacorcútis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRRacaCorEtnia-1.0}
-</t>
-  </si>
-  <si>
-    <t>Raça/Cor e Etnia</t>
-  </si>
-  <si>
-    <t>Dados relacionados à raça/cor e etnia de um indivíduo.</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthCity</t>
-  </si>
-  <si>
-    <t>birthCity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRMunicipio-1.0}
-</t>
-  </si>
-  <si>
-    <t>Município</t>
-  </si>
-  <si>
-    <t>Informa o município de nascimento (apenas para nascidos no Brasil).</t>
-  </si>
-  <si>
-    <t>Patient.extension:birthCountry</t>
-  </si>
-  <si>
-    <t>birthCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://br-ipes.com/fhir/StructureDefinition/BirthCountry-1.0}
-</t>
-  </si>
-  <si>
-    <t>País de nascimento</t>
-  </si>
-  <si>
-    <t>País de nascimento.</t>
   </si>
   <si>
     <t>Patient.extension:citizenship</t>
@@ -1299,22 +1277,25 @@
 </t>
   </si>
   <si>
-    <t>Nome do Indivíduo</t>
-  </si>
-  <si>
-    <t>Nome(s) associado(s) ao indivíduo.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>.patient.name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1623,9 +1604,6 @@
   </si>
   <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>NK1-2</t>
@@ -2020,21 +1998,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2379,7 +2342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
@@ -2494,7 +2457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>84</v>
       </c>
@@ -2611,7 +2574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>92</v>
       </c>
@@ -2726,7 +2689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>98</v>
       </c>
@@ -2843,7 +2806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>104</v>
       </c>
@@ -2960,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
@@ -3077,7 +3040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>121</v>
       </c>
@@ -3194,7 +3157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
@@ -3307,7 +3270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>137</v>
       </c>
@@ -3340,10 +3303,10 @@
         <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3403,7 +3366,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -3424,25 +3387,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>18</v>
@@ -3454,13 +3417,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3520,7 +3483,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>136</v>
@@ -3541,15 +3504,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>18</v>
@@ -3571,13 +3534,13 @@
         <v>18</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3637,7 +3600,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>136</v>
@@ -3658,15 +3621,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>18</v>
@@ -3688,13 +3651,13 @@
         <v>18</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3754,7 +3717,7 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>136</v>
@@ -3775,15 +3738,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>18</v>
@@ -3805,13 +3768,13 @@
         <v>18</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3892,12 +3855,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3923,10 +3886,10 @@
         <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3977,7 +3940,7 @@
         <v>18</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3986,13 +3949,13 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>18</v>
@@ -4007,16 +3970,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4038,13 +4001,13 @@
         <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4085,7 +4048,7 @@
         <v>133</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>18</v>
@@ -4094,7 +4057,7 @@
         <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4109,7 +4072,7 @@
         <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>18</v>
@@ -4124,15 +4087,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>18</v>
@@ -4211,7 +4174,7 @@
         <v>18</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4241,12 +4204,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4272,10 +4235,10 @@
         <v>87</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4326,7 +4289,7 @@
         <v>18</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4335,13 +4298,13 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>18</v>
@@ -4356,12 +4319,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4432,7 +4395,7 @@
         <v>133</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>18</v>
@@ -4441,7 +4404,7 @@
         <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4471,12 +4434,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4502,13 +4465,13 @@
         <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4516,7 +4479,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>18</v>
@@ -4558,7 +4521,7 @@
         <v>18</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
@@ -4588,12 +4551,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4616,13 +4579,13 @@
         <v>18</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4673,7 +4636,7 @@
         <v>18</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4682,7 +4645,7 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>97</v>
@@ -4703,15 +4666,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>18</v>
@@ -4736,10 +4699,10 @@
         <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4790,7 +4753,7 @@
         <v>18</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4820,12 +4783,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4851,10 +4814,10 @@
         <v>87</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4905,7 +4868,7 @@
         <v>18</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4914,13 +4877,13 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>18</v>
@@ -4935,12 +4898,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5011,7 +4974,7 @@
         <v>133</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>18</v>
@@ -5020,7 +4983,7 @@
         <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5050,12 +5013,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5081,13 +5044,13 @@
         <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5095,7 +5058,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>18</v>
@@ -5137,7 +5100,7 @@
         <v>18</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -5167,12 +5130,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5195,13 +5158,13 @@
         <v>18</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5252,7 +5215,7 @@
         <v>18</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5261,7 +5224,7 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>97</v>
@@ -5282,12 +5245,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5313,13 +5276,13 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5327,7 +5290,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>18</v>
@@ -5369,7 +5332,7 @@
         <v>18</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
@@ -5399,12 +5362,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5427,13 +5390,13 @@
         <v>18</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5484,7 +5447,7 @@
         <v>18</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5493,7 +5456,7 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>97</v>
@@ -5514,15 +5477,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>18</v>
@@ -5544,13 +5507,13 @@
         <v>18</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5610,7 +5573,7 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>136</v>
@@ -5631,15 +5594,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>18</v>
@@ -5661,13 +5624,13 @@
         <v>18</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5748,16 +5711,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5779,16 +5742,16 @@
         <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>18</v>
@@ -5837,7 +5800,7 @@
         <v>18</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5867,12 +5830,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5895,17 +5858,17 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>18</v>
@@ -5942,7 +5905,7 @@
         <v>18</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -5952,7 +5915,7 @@
         <v>134</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5967,30 +5930,30 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>18</v>
@@ -6012,17 +5975,17 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>18</v>
@@ -6071,7 +6034,7 @@
         <v>18</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6086,27 +6049,27 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="B34" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6129,13 +6092,13 @@
         <v>18</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6186,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6201,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>18</v>
@@ -6216,16 +6179,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6247,13 +6210,13 @@
         <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6294,7 +6257,7 @@
         <v>133</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>18</v>
@@ -6303,7 +6266,7 @@
         <v>134</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6318,7 +6281,7 @@
         <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>18</v>
@@ -6333,12 +6296,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6364,16 +6327,16 @@
         <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>18</v>
@@ -6398,13 +6361,13 @@
         <v>18</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>18</v>
@@ -6422,7 +6385,7 @@
         <v>18</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6437,7 +6400,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>18</v>
@@ -6452,12 +6415,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6480,26 +6443,26 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>18</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>18</v>
@@ -6517,13 +6480,13 @@
         <v>18</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>18</v>
@@ -6541,7 +6504,7 @@
         <v>18</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6519,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>18</v>
@@ -6565,18 +6528,18 @@
         <v>18</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6599,13 +6562,13 @@
         <v>18</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6656,7 +6619,7 @@
         <v>18</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6671,7 +6634,7 @@
         <v>18</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>18</v>
@@ -6686,16 +6649,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6717,13 +6680,13 @@
         <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6764,7 +6727,7 @@
         <v>133</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>18</v>
@@ -6773,7 +6736,7 @@
         <v>134</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6788,7 +6751,7 @@
         <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>18</v>
@@ -6803,12 +6766,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6831,19 +6794,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>18</v>
@@ -6892,7 +6855,7 @@
         <v>18</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6907,7 +6870,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>18</v>
@@ -6916,18 +6879,18 @@
         <v>18</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6950,13 +6913,13 @@
         <v>18</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7007,7 +6970,7 @@
         <v>18</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7022,7 +6985,7 @@
         <v>18</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>18</v>
@@ -7037,16 +7000,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7068,13 +7031,13 @@
         <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7115,7 +7078,7 @@
         <v>133</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>18</v>
@@ -7124,7 +7087,7 @@
         <v>134</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7139,7 +7102,7 @@
         <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>18</v>
@@ -7154,12 +7117,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7185,16 +7148,16 @@
         <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>18</v>
@@ -7243,7 +7206,7 @@
         <v>18</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7258,7 +7221,7 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>18</v>
@@ -7267,18 +7230,18 @@
         <v>18</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7301,16 +7264,16 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7360,7 +7323,7 @@
         <v>18</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7375,7 +7338,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>18</v>
@@ -7384,18 +7347,18 @@
         <v>18</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7421,14 +7384,14 @@
         <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>18</v>
@@ -7477,7 +7440,7 @@
         <v>18</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7492,7 +7455,7 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>18</v>
@@ -7501,18 +7464,18 @@
         <v>18</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7535,17 +7498,17 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>18</v>
@@ -7594,7 +7557,7 @@
         <v>18</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7609,7 +7572,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>18</v>
@@ -7618,18 +7581,18 @@
         <v>18</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7652,19 +7615,19 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>18</v>
@@ -7713,7 +7676,7 @@
         <v>18</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7728,7 +7691,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>18</v>
@@ -7737,18 +7700,18 @@
         <v>18</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7771,19 +7734,19 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>18</v>
@@ -7832,7 +7795,7 @@
         <v>18</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7847,7 +7810,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>18</v>
@@ -7856,18 +7819,18 @@
         <v>18</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7893,29 +7856,29 @@
         <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>18</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>18</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>18</v>
@@ -7951,7 +7914,7 @@
         <v>18</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7966,7 +7929,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>18</v>
@@ -7975,18 +7938,18 @@
         <v>18</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8009,16 +7972,16 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8032,7 +7995,7 @@
         <v>18</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>18</v>
@@ -8068,7 +8031,7 @@
         <v>18</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8083,7 +8046,7 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>18</v>
@@ -8092,18 +8055,18 @@
         <v>18</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8126,13 +8089,13 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8183,7 +8146,7 @@
         <v>18</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8198,7 +8161,7 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>18</v>
@@ -8207,18 +8170,18 @@
         <v>18</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8241,16 +8204,16 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8300,7 +8263,7 @@
         <v>18</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8315,7 +8278,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>18</v>
@@ -8324,21 +8287,21 @@
         <v>18</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>18</v>
@@ -8360,17 +8323,17 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>18</v>
@@ -8419,7 +8382,7 @@
         <v>18</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8434,27 +8397,27 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8477,13 +8440,13 @@
         <v>18</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8534,7 +8497,7 @@
         <v>18</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8549,7 +8512,7 @@
         <v>18</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>18</v>
@@ -8564,16 +8527,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8595,13 +8558,13 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8642,7 +8605,7 @@
         <v>133</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>18</v>
@@ -8651,7 +8614,7 @@
         <v>134</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8666,7 +8629,7 @@
         <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>18</v>
@@ -8681,12 +8644,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8712,16 +8675,16 @@
         <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>18</v>
@@ -8746,13 +8709,13 @@
         <v>18</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>18</v>
@@ -8770,7 +8733,7 @@
         <v>18</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8785,7 +8748,7 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>18</v>
@@ -8800,12 +8763,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8828,26 +8791,26 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>18</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>18</v>
@@ -8865,13 +8828,13 @@
         <v>18</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>18</v>
@@ -8889,7 +8852,7 @@
         <v>18</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8904,7 +8867,7 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>18</v>
@@ -8913,18 +8876,18 @@
         <v>18</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8947,13 +8910,13 @@
         <v>18</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9004,7 +8967,7 @@
         <v>18</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9019,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>18</v>
@@ -9034,16 +8997,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9065,13 +9028,13 @@
         <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9112,7 +9075,7 @@
         <v>133</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>18</v>
@@ -9121,7 +9084,7 @@
         <v>134</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9136,7 +9099,7 @@
         <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>18</v>
@@ -9151,12 +9114,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9179,19 +9142,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>18</v>
@@ -9240,7 +9203,7 @@
         <v>18</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9255,7 +9218,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>18</v>
@@ -9264,18 +9227,18 @@
         <v>18</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9298,13 +9261,13 @@
         <v>18</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9355,7 +9318,7 @@
         <v>18</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9370,7 +9333,7 @@
         <v>18</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>18</v>
@@ -9385,16 +9348,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9416,13 +9379,13 @@
         <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9463,7 +9426,7 @@
         <v>133</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>18</v>
@@ -9472,7 +9435,7 @@
         <v>134</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9487,7 +9450,7 @@
         <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>18</v>
@@ -9502,12 +9465,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9533,16 +9496,16 @@
         <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>18</v>
@@ -9591,7 +9554,7 @@
         <v>18</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9606,7 +9569,7 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>18</v>
@@ -9615,18 +9578,18 @@
         <v>18</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9649,16 +9612,16 @@
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9708,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9723,7 +9686,7 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>18</v>
@@ -9732,18 +9695,18 @@
         <v>18</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9769,14 +9732,14 @@
         <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>18</v>
@@ -9825,7 +9788,7 @@
         <v>18</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9840,7 +9803,7 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>18</v>
@@ -9849,18 +9812,18 @@
         <v>18</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9883,17 +9846,17 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>18</v>
@@ -9942,7 +9905,7 @@
         <v>18</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9957,7 +9920,7 @@
         <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>18</v>
@@ -9966,18 +9929,18 @@
         <v>18</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10000,19 +9963,19 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>18</v>
@@ -10061,7 +10024,7 @@
         <v>18</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10076,7 +10039,7 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>18</v>
@@ -10085,18 +10048,18 @@
         <v>18</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10119,19 +10082,19 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>18</v>
@@ -10180,7 +10143,7 @@
         <v>18</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10195,7 +10158,7 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>18</v>
@@ -10204,18 +10167,18 @@
         <v>18</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10241,29 +10204,29 @@
         <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>18</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>18</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>18</v>
@@ -10299,7 +10262,7 @@
         <v>18</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10314,7 +10277,7 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>18</v>
@@ -10323,18 +10286,18 @@
         <v>18</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10357,16 +10320,16 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10380,7 +10343,7 @@
         <v>18</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>18</v>
@@ -10416,7 +10379,7 @@
         <v>18</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10431,7 +10394,7 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>18</v>
@@ -10440,18 +10403,18 @@
         <v>18</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10474,13 +10437,13 @@
         <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10531,7 +10494,7 @@
         <v>18</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10546,7 +10509,7 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>18</v>
@@ -10555,18 +10518,18 @@
         <v>18</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10589,16 +10552,16 @@
         <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10648,7 +10611,7 @@
         <v>18</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10663,7 +10626,7 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>18</v>
@@ -10672,18 +10635,18 @@
         <v>18</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10706,25 +10669,25 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>18</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>18</v>
@@ -10769,7 +10732,7 @@
         <v>18</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10784,13 +10747,13 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>18</v>
@@ -10799,12 +10762,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10818,28 +10781,28 @@
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I74" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="K74" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>18</v>
@@ -10888,7 +10851,7 @@
         <v>18</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10897,33 +10860,33 @@
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10946,19 +10909,19 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>18</v>
@@ -11007,7 +10970,7 @@
         <v>18</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11022,27 +10985,27 @@
         <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11068,16 +11031,16 @@
         <v>105</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>18</v>
@@ -11102,13 +11065,13 @@
         <v>18</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>18</v>
@@ -11126,7 +11089,7 @@
         <v>18</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11141,27 +11104,27 @@
         <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11184,19 +11147,19 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>18</v>
@@ -11245,7 +11208,7 @@
         <v>18</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11260,27 +11223,27 @@
         <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11303,19 +11266,19 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>18</v>
@@ -11364,7 +11327,7 @@
         <v>18</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11379,27 +11342,27 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11422,19 +11385,19 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>18</v>
@@ -11483,7 +11446,7 @@
         <v>18</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11498,27 +11461,27 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11541,17 +11504,17 @@
         <v>18</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>18</v>
@@ -11576,13 +11539,13 @@
         <v>18</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>18</v>
@@ -11600,7 +11563,7 @@
         <v>18</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11615,27 +11578,27 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11658,19 +11621,19 @@
         <v>18</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>18</v>
@@ -11719,7 +11682,7 @@
         <v>18</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11734,27 +11697,27 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11777,19 +11740,19 @@
         <v>18</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>18</v>
@@ -11838,7 +11801,7 @@
         <v>18</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11853,27 +11816,27 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11896,19 +11859,19 @@
         <v>18</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>18</v>
@@ -11957,7 +11920,7 @@
         <v>18</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11969,13 +11932,13 @@
         <v>18</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>18</v>
@@ -11987,12 +11950,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12015,13 +11978,13 @@
         <v>18</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12072,7 +12035,7 @@
         <v>18</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12087,7 +12050,7 @@
         <v>18</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>18</v>
@@ -12102,16 +12065,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12133,13 +12096,13 @@
         <v>130</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12189,7 +12152,7 @@
         <v>18</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12204,7 +12167,7 @@
         <v>136</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>18</v>
@@ -12219,16 +12182,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12250,16 +12213,16 @@
         <v>130</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>18</v>
@@ -12308,7 +12271,7 @@
         <v>18</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12338,12 +12301,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12366,17 +12329,17 @@
         <v>18</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>18</v>
@@ -12401,13 +12364,13 @@
         <v>18</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>18</v>
@@ -12425,7 +12388,7 @@
         <v>18</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12440,27 +12403,27 @@
         <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12483,17 +12446,17 @@
         <v>18</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>18</v>
@@ -12542,7 +12505,7 @@
         <v>18</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12557,27 +12520,27 @@
         <v>97</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12600,19 +12563,19 @@
         <v>18</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>18</v>
@@ -12661,7 +12624,7 @@
         <v>18</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12676,27 +12639,27 @@
         <v>97</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12719,17 +12682,17 @@
         <v>18</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>18</v>
@@ -12778,7 +12741,7 @@
         <v>18</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12793,27 +12756,27 @@
         <v>97</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12839,14 +12802,14 @@
         <v>105</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>18</v>
@@ -12871,13 +12834,13 @@
         <v>18</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>18</v>
@@ -12895,7 +12858,7 @@
         <v>18</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12910,27 +12873,27 @@
         <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12953,17 +12916,17 @@
         <v>18</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>18</v>
@@ -13012,7 +12975,7 @@
         <v>18</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13021,33 +12984,33 @@
         <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13070,13 +13033,13 @@
         <v>18</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13127,7 +13090,7 @@
         <v>18</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13142,10 +13105,10 @@
         <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>18</v>
@@ -13157,12 +13120,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13185,19 +13148,19 @@
         <v>18</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>18</v>
@@ -13246,7 +13209,7 @@
         <v>18</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13261,10 +13224,10 @@
         <v>97</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>18</v>
@@ -13276,12 +13239,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13304,13 +13267,13 @@
         <v>18</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13361,7 +13324,7 @@
         <v>18</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13376,7 +13339,7 @@
         <v>18</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>18</v>
@@ -13391,16 +13354,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13422,13 +13385,13 @@
         <v>130</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13478,7 +13441,7 @@
         <v>18</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13493,7 +13456,7 @@
         <v>136</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>18</v>
@@ -13508,16 +13471,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13539,16 +13502,16 @@
         <v>130</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>18</v>
@@ -13597,7 +13560,7 @@
         <v>18</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -13627,12 +13590,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13655,19 +13618,19 @@
         <v>18</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>18</v>
@@ -13716,7 +13679,7 @@
         <v>18</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>85</v>
@@ -13731,27 +13694,27 @@
         <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13774,19 +13737,19 @@
         <v>18</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>18</v>
@@ -13835,7 +13798,7 @@
         <v>18</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13850,31 +13813,31 @@
         <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13893,16 +13856,16 @@
         <v>18</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13952,7 +13915,7 @@
         <v>18</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -13967,27 +13930,27 @@
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14010,19 +13973,19 @@
         <v>86</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>18</v>
@@ -14071,7 +14034,7 @@
         <v>18</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14086,10 +14049,10 @@
         <v>97</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>18</v>
@@ -14101,12 +14064,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14129,19 +14092,19 @@
         <v>86</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>18</v>
@@ -14190,7 +14153,7 @@
         <v>18</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14205,10 +14168,10 @@
         <v>97</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>18</v>
@@ -14220,12 +14183,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14248,13 +14211,13 @@
         <v>18</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14305,7 +14268,7 @@
         <v>18</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14320,7 +14283,7 @@
         <v>18</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>18</v>
@@ -14335,16 +14298,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14366,13 +14329,13 @@
         <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14422,7 +14385,7 @@
         <v>18</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14437,7 +14400,7 @@
         <v>136</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>18</v>
@@ -14452,16 +14415,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14483,16 +14446,16 @@
         <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>18</v>
@@ -14541,7 +14504,7 @@
         <v>18</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14571,12 +14534,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14599,16 +14562,16 @@
         <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14658,7 +14621,7 @@
         <v>18</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>85</v>
@@ -14673,27 +14636,27 @@
         <v>97</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>18</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14719,10 +14682,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14749,13 +14712,13 @@
         <v>18</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>18</v>
@@ -14773,7 +14736,7 @@
         <v>18</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>85</v>
@@ -14788,10 +14751,10 @@
         <v>97</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>18</v>
@@ -14804,24 +14767,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO107">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>